--- a/result_table_templates/PairedSpots_CA.xlsx
+++ b/result_table_templates/PairedSpots_CA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10722"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11217"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregschwartz/matlab/DJ_schwartzlab/result_table_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B1BAE32-E8CC-BA46-9636-A49443F0B579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE6556E-9DB5-6141-BBE0-600D2978E08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28600" yWindow="1040" windowWidth="22800" windowHeight="24360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>Field</t>
   </si>
@@ -73,58 +73,52 @@
     <t>sample rate (Hz)</t>
   </si>
   <si>
-    <t>spike_count_matrix_mean</t>
-  </si>
-  <si>
-    <t>spike count for matrix in the same format as trace_matrix_mean</t>
-  </si>
-  <si>
-    <t>spike_count_matrix_sem</t>
-  </si>
-  <si>
-    <t>sem of spike_count_matrix_mean</t>
-  </si>
-  <si>
-    <t>spot_dist</t>
-  </si>
-  <si>
-    <t>spot_ang</t>
-  </si>
-  <si>
-    <t>array of spot distances (microns)</t>
-  </si>
-  <si>
-    <t>array of spot angles (radians)</t>
-  </si>
-  <si>
-    <t>rstar_intensity_spot</t>
-  </si>
-  <si>
-    <t>intensity of spot</t>
-  </si>
-  <si>
     <t>spot_size</t>
   </si>
   <si>
     <t>size of spot (microns)</t>
   </si>
   <si>
-    <t>pre_time_ms</t>
-  </si>
-  <si>
-    <t>baseline before each spot presentation (ms)</t>
-  </si>
-  <si>
-    <t>stim_time_ms</t>
-  </si>
-  <si>
-    <t>stimulus presentation time (ms)</t>
-  </si>
-  <si>
-    <t>tail_time_ms</t>
-  </si>
-  <si>
-    <t>time after each spot presentation (ms)</t>
+    <t>rstar_mean</t>
+  </si>
+  <si>
+    <t>intensity of background</t>
+  </si>
+  <si>
+    <t>contrasts</t>
+  </si>
+  <si>
+    <t>array of Weber contrast values that specify the order of the data sets</t>
+  </si>
+  <si>
+    <t>spot_pre_frames</t>
+  </si>
+  <si>
+    <t>spot_stim_frames</t>
+  </si>
+  <si>
+    <t>spot_tail_frames</t>
+  </si>
+  <si>
+    <t>frames (at 60 Hz) of pre time for each spot</t>
+  </si>
+  <si>
+    <t>frames (at 60 Hz) of stim time for each spot</t>
+  </si>
+  <si>
+    <t>frames (at 60 Hz) of tail time for each spot</t>
+  </si>
+  <si>
+    <t>single_spot_data</t>
+  </si>
+  <si>
+    <t>paired_spot_data</t>
+  </si>
+  <si>
+    <t>cell array of dictionaries (by contrast) storing spike counts, center point, and distance between spots for each spot pair position</t>
+  </si>
+  <si>
+    <t>cell array of dictionaries (by contrast) storing spike counts for each spot position</t>
   </si>
 </sst>
 </file>
@@ -484,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="297" zoomScaleNormal="297" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -565,21 +559,21 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
@@ -587,43 +581,43 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>28</v>
@@ -634,32 +628,21 @@
         <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
